--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -441,7 +441,7 @@
         <v>他們只會為費米實驗室建設。</v>
       </c>
       <c r="D3" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="4">
@@ -455,7 +455,7 @@
         <v>如果你將羅賓·林波出生的年份反轉數字，你會得到4691。</v>
       </c>
       <c r="D4" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>必要和適當條款特別適用於已過期的版權。</v>
       </c>
       <c r="D7" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="8">
@@ -511,7 +511,7 @@
         <v>Eveland 來自橙縣的市鎮。</v>
       </c>
       <c r="D8" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         <v>參議員Ghitter將會參加總統選舉。</v>
       </c>
       <c r="D9" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="10">
@@ -539,7 +539,7 @@
         <v>東德克薩斯的男人和女人神智清醒。</v>
       </c>
       <c r="D10" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         <v>會議於1998年10月1日舉行。</v>
       </c>
       <c r="D11" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="12">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -567,7 +567,7 @@
         <v>在歷史上的某個時刻，曾經對某些制裁的實施不確定性發出威脅。這些制裁會使一個實體感到非常不安。</v>
       </c>
       <c r="D12" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>如果一個程序不是 RedHat Enterprise 認證的話，它可以在相應的 Fermi Linux LTS 發行版上運行。</v>
       </c>
       <c r="D13" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="14">
@@ -595,7 +595,7 @@
         <v>如果你從來不使用這個地方，每星期幾次就足夠了。</v>
       </c>
       <c r="D14" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="15">
@@ -609,7 +609,7 @@
         <v>這座房子是在1940年代建成的。</v>
       </c>
       <c r="D15" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="16">
@@ -623,7 +623,7 @@
         <v>在這個上下文中提到的「他們」完全站在控方一邊。</v>
       </c>
       <c r="D16" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="17">
@@ -637,7 +637,7 @@
         <v>文章提到要用完車內大部分的油。</v>
       </c>
       <c r="D17" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="18">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -469,7 +469,7 @@
         <v>最常見的家居蟲咬是紅色蟲咬。</v>
       </c>
       <c r="D5" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>第三世界的債務有一個xx</v>
       </c>
       <c r="D6" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>這兩名男子被判入獄20年。</v>
       </c>
       <c r="D18" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>知道你的對手是否喝得太多是很有幫助的。</v>
       </c>
       <c r="D19" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>麥可·傑克森已經去世。</v>
       </c>
       <c r="D20" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>早期學習並沒有受到重視。</v>
       </c>
       <c r="D21" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>在國家民俗公園站下車，然後從那裡步行到主入口。</v>
       </c>
       <c r="D22" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="23">
@@ -721,7 +721,7 @@
         <v>槍擊持續到星期二早上。</v>
       </c>
       <c r="D23" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="24">
@@ -735,7 +735,7 @@
         <v>這次改革旨在統一拼寫規則。</v>
       </c>
       <c r="D24" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>你的水管的外觀會告訴你它是如何受損的。</v>
       </c>
       <c r="D25" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>人們喜歡在冷的房間裡睡覺。</v>
       </c>
       <c r="D26" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="27">
@@ -777,7 +777,7 @@
         <v>如果你以前在星期三中午12點看《SportsCenter》，你可能知道Chris McKendry是誰。</v>
       </c>
       <c r="D27" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="28">
@@ -805,7 +805,7 @@
         <v>這名特工是軍方的一部分。</v>
       </c>
       <c r="D29" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         <v>任何人只要有意志力，就可以種植非洲紫羅蘭。</v>
       </c>
       <c r="D30" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         <v>只有在涼快的時候才去睡覺。</v>
       </c>
       <c r="D31" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         <v>持久和平將會實現</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>夏令時間會影響你的執業，請考慮到這一點。</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="34">
@@ -875,7 +875,7 @@
         <v>成年人可以有注意力不足過動症。</v>
       </c>
       <c r="D34" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="35">
@@ -903,7 +903,7 @@
         <v>如果你停止吸煙煙草產品，你就不會得肺癌。</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         <v>員工不願意提供宣誓書。</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="38">
@@ -945,7 +945,7 @@
         <v>鍾路有一隊巴士。</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>這個人研究版權法。</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>唔好食維他命E。</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="42">
@@ -1029,7 +1029,7 @@
         <v>該聲明提到的人的名字以M和F開頭。</v>
       </c>
       <c r="D45" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="46">
@@ -1057,7 +1057,7 @@
         <v>你嘅心臟控制住你身體嘅時鐘。</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="48">
@@ -1085,7 +1085,7 @@
         <v>如果吸煙會導致異常細胞，那麼異常細胞就是癌症的唯一原因。</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>北韓已經安裝了新的檢查攝影機。</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>如果對手獨自一人，你就可以贏。</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="52">
@@ -1127,7 +1127,7 @@
         <v>賣車就好似喺沙漠賣水。</v>
       </c>
       <c r="D52" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="53">
@@ -1155,7 +1155,7 @@
         <v>這種瓷磚需要拖地。</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>醫生會記錄病人的疫苗接種歷史。</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>這個問題很難回答。</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>版權法已經存在超過200年。</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>這封重要的信是關於貝絲·伊夫蘭德所作的評論。</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="59">
@@ -1225,7 +1225,7 @@
         <v>哈羅米芝士最好在戶外食用。</v>
       </c>
       <c r="D59" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="60">
@@ -1239,7 +1239,7 @@
         <v>比利時主要是弗拉芒人。</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>萊姆病是遺傳的。</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -1267,7 +1267,7 @@
         <v>《奧地利》是一部電影。</v>
       </c>
       <c r="D62" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="63">
@@ -1295,7 +1295,7 @@
         <v>路易斯·湯明遜出現在ITV的喜劇中。</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="65">
@@ -1309,7 +1309,7 @@
         <v>詹妮弗·加納參演了一部電影。</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1323,7 +1323,7 @@
         <v>詹姆斯·威爾遜是一個真實的人，尚未被塑造成虛構角色。</v>
       </c>
       <c r="D66" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1337,7 @@
         <v>邁克爾先生將會被起訴。</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="68">
@@ -1351,7 +1351,7 @@
         <v>如果有人收到一個割包皮儀式的邀請，他們會感到被冒犯。</v>
       </c>
       <c r="D68" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="69">
@@ -1365,7 +1365,7 @@
         <v>該頻道已經從互聯網上移除下載。</v>
       </c>
       <c r="D69" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="70">
@@ -1379,7 +1379,7 @@
         <v>下載該頻道的前提是必須安裝 Internet Explorer。</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>有一個固定數量的選民。</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>期權交易者為斯科爾斯和默頓拍手稱讚。</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>如果我們不關注世界上的麥當勞，它們就會自動消失。</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>有20%的新共同基金資金流入指數基金，這是一個非常正面的跡象。</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="75">
@@ -1449,7 +1449,7 @@
         <v>安德魯·鮑姆加特納是一位無聊的老師。</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="76">
@@ -1463,7 +1463,7 @@
         <v>大佬們以為這是無風險的。</v>
       </c>
       <c r="D76" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="77">
@@ -1477,7 +1477,7 @@
         <v>調查可以在線上填寫。</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>支持選擇的媒體願意接受支持他們主張的統計數據，即使這些數據不正確。</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="79">
@@ -1505,7 +1505,7 @@
         <v>傑瑞·辛費爾德讓迷人看起來有點幼稚。</v>
       </c>
       <c r="D79" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="80">
@@ -1519,7 +1519,7 @@
         <v>肯尼威克人如果有證據存在，就可以自己選擇他的保留權。</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>在期權交易所的交易大廳，經常可以聽到掌聲。</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="82">
@@ -1547,7 +1547,7 @@
         <v>原來，如果克林頓表達他的悲傷和懊悔，盧文斯基和特里普會成為好朋友。</v>
       </c>
       <c r="D82" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="83">
@@ -1561,7 +1561,7 @@
         <v>目前正在進行一場文化內戰。</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>因此，你要拆開他們的束縛，使她所說和呼喚他的話確實無效。</v>
       </c>
       <c r="D84" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="85">
@@ -1589,7 +1589,7 @@
         <v>如果這本期刊是免費的，廣告商會放棄它。</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>如果他以保證金購買，他將面臨更大的損失。</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>Sheen 正走在一條通往死亡的路上。</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="88">
@@ -1631,7 +1631,7 @@
         <v>成功馴化動物後，將它們作為寵物是一個個人選擇。</v>
       </c>
       <c r="D88" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="89">
@@ -1645,7 +1645,7 @@
         <v>你可以點擊這裡閱讀喬恩·羅賓·貝茨對這場爭議的看法以及他對審查制度的意見。</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="90">
@@ -1673,7 +1673,7 @@
         <v>蘭茲堡正在批評美國。</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="92">
@@ -1687,7 +1687,7 @@
         <v>幾乎所有的實體出版物都不貴，大部分都非常實惠。</v>
       </c>
       <c r="D92" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="93">
@@ -1701,7 +1701,7 @@
         <v>墮胎程序很重要</v>
       </c>
       <c r="D93" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="94">
@@ -1715,7 +1715,7 @@
         <v>在退休前使用IRA帳戶可以帶來稅務優惠。</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>他們的退出可以採取微妙的方法。</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>有些國會議員曾經搭過紐約市的地鐵。</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="97">
@@ -1771,7 +1771,7 @@
         <v>比爾·蓋茨掙扎著支付他的賬單。</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>批評家對所有社會小說都持輕視態度。</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="100">
@@ -1799,7 +1799,7 @@
         <v>食甲殼類海鮮會令你看起來像是以鳥類的方式進食。</v>
       </c>
       <c r="D100" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="101">
@@ -1813,7 +1813,7 @@
         <v>《達拉斯晨報》的報導有助於更深入了解克林頓與盧文斯基之間發生的事件。</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="102">
@@ -1827,7 +1827,7 @@
         <v>他同意是因為否則就是彈劾。</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>喬治·布殊父子都來自南方。</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="104">
@@ -1855,7 +1855,7 @@
         <v>大部分的負面情況再次出現。</v>
       </c>
       <c r="D104" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="105">
@@ -1869,7 +1869,7 @@
         <v>墮胎是不愉快的。</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="106">
@@ -1883,7 +1883,7 @@
         <v>有些人在乎法官是否誠實。</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>部分出生墮胎、D和E都是一樣的。</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="108">
@@ -1911,7 +1911,7 @@
         <v>這對情侶正在拍攝一段同性戀視頻，他們之前從未見過面。</v>
       </c>
       <c r="D108" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="109">
@@ -1925,7 +1925,7 @@
         <v>看起來好像要失敗了。</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="110">
@@ -1939,7 +1939,7 @@
         <v>這個進修課程是必修的。</v>
       </c>
       <c r="D110" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="111">
@@ -1953,7 +1953,7 @@
         <v>原因在於答案之中。</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="112">
@@ -1967,7 +1967,7 @@
         <v>在普通戲劇中沒有暴力是錯誤的。</v>
       </c>
       <c r="D112" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="113">
@@ -1981,7 +1981,7 @@
         <v>媒介愛好者被視為一個新時代。</v>
       </c>
       <c r="D113" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="114">
@@ -1995,7 +1995,7 @@
         <v>他們肯定會買的。</v>
       </c>
       <c r="D114" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="115">
@@ -2023,7 +2023,7 @@
         <v>病人不對保險公司提出訴訟將是一個正確的方向。</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>他打算成為一個嚴重的威脅。</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2051,7 +2051,7 @@
         <v>這個故事好搞笑。</v>
       </c>
       <c r="D118" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="119">
@@ -2065,7 +2065,7 @@
         <v>政府不控制禁運。</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>如果你的孩子已經有保險，則該計劃將不會涵蓋他們。</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">
@@ -2093,7 +2093,7 @@
         <v>冇人會自行得出結論話這是一件傑作。</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="122">
@@ -2121,7 +2121,7 @@
         <v>即使垂直軸的數據有所變化，Y截距整體上仍然不會改變。</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="124">
@@ -2135,7 +2135,7 @@
         <v>保守派認為作偽證就是作偽證，沒有人可以逃避責任。</v>
       </c>
       <c r="D124" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="125">
@@ -2149,7 +2149,7 @@
         <v>他經過兩個月的搜尋，終於找到一個願意在那些時間工作的人。</v>
       </c>
       <c r="D125" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="126">
@@ -2163,7 +2163,7 @@
         <v>這個改變將提供它自己的保護。</v>
       </c>
       <c r="D126" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="127">
@@ -2177,7 +2177,7 @@
         <v>在法國大都市區騎單車是安全和輕鬆的。</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>目前尚不清楚虐待是否發生得更頻繁，還是僅僅被報告得更頻繁。</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>實習生是不會有薪水的。</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>如果他告訴你你會喜歡《快樂德克薩斯》，那他就不是一個好朋友，文章寫道。</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">
@@ -2233,7 +2233,7 @@
         <v>我會偶爾去一次，當我有興趣的時候。</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>即使你收費，遵守規則也是可能的。</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="133">
@@ -2261,7 +2261,7 @@
         <v>如果不是土耳其</v>
       </c>
       <c r="D133" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="134">
@@ -2275,7 +2275,7 @@
         <v>一開始很難判斷Fred是否好。</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>店員說如果我選擇雕刻，他會給我20%的折扣。</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>如果樂隊喊「ole」，這意味著鬥牛士表現不佳。</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="137">
@@ -2317,7 +2317,7 @@
         <v>我們對土著所做的事情讓卡斯特看起來很仁慈。</v>
       </c>
       <c r="D137" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="138">
@@ -2331,7 +2331,7 @@
         <v>很多人喜歡買一隻填充的河豚作為紀念品，還可以當作燈罩。</v>
       </c>
       <c r="D138" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="139">
@@ -2345,7 +2345,7 @@
         <v>這不是問題。</v>
       </c>
       <c r="D139" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="140">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -2359,7 +2359,7 @@
         <v>我未完成就被發現了。</v>
       </c>
       <c r="D140" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="141">
@@ -2373,7 +2373,7 @@
         <v>他可以獲取所有信息，如果受到輕視，他會迅速行動。</v>
       </c>
       <c r="D141" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="142">
@@ -2387,7 +2387,7 @@
         <v>如果我們尊重他的遺產，他會很高興。</v>
       </c>
       <c r="D142" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="143">
@@ -2401,7 +2401,7 @@
         <v>在歌劇院後面有兩間最著名的百貨公司，如果你能找到它們。</v>
       </c>
       <c r="D143" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="144">
@@ -2415,7 +2415,7 @@
         <v>你知道你並沒有為任何候選人投票。</v>
       </c>
       <c r="D144" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="145">
@@ -2429,7 +2429,7 @@
         <v>每個人都會得到父母的幫助以上大學。</v>
       </c>
       <c r="D145" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="146">
@@ -2443,7 +2443,7 @@
         <v>文章中的鏈接包含的內容與文章底部的鏈接不同。</v>
       </c>
       <c r="D146" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>大師鞋匠與他的助手保持專業關係。</v>
       </c>
       <c r="D147" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="148">
@@ -2471,7 +2471,7 @@
         <v>如果你幸運，就不會發生。</v>
       </c>
       <c r="D148" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="149">
@@ -2485,7 +2485,7 @@
         <v>如果我要誠實地說，這並不總是能保護你的手指。</v>
       </c>
       <c r="D149" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="150">
@@ -2499,7 +2499,7 @@
         <v>如果有問題，你不需要諮詢LSC。</v>
       </c>
       <c r="D150" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2513,7 @@
         <v>我預期結果會有顯著的不同。</v>
       </c>
       <c r="D151" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="152">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -2541,7 +2541,7 @@
         <v>他被特別問到加州的攝影師。</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>每五年或每三年進行安裝確實會影響勞工成本。</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="155">
@@ -2569,7 +2569,7 @@
         <v>共和黨的投票率低。</v>
       </c>
       <c r="D155" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="156">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -4445,7 +4445,7 @@
         <v>他無論如何都會回答。</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4473,7 +4473,7 @@
         <v>如果你一定要爭吵，就和你的女朋友爭吵。</v>
       </c>
       <c r="D291" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="292">
@@ -4501,7 +4501,7 @@
         <v>公司將會倒閉。</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>這個國家對這個問題沒有興趣，因為媒體已經決定忽視它。</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>這個孩子不是私生子。</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>如果新法例通過，將會成立一個獨立的婦女事務部。</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>軍隊的規模已大幅縮減。</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>如果你不進行修理，你將要負責全部修理費用。</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>如果你有投訴，請寫信給總統。</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="300">
@@ -4599,7 +4599,7 @@
         <v>我知道你會告訴我。</v>
       </c>
       <c r="D300" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="301">
@@ -4613,7 +4613,7 @@
         <v>今日主廚特餐係個好地方食晚飯。</v>
       </c>
       <c r="D301" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="302">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -2583,7 +2583,7 @@
         <v>我應該等多久才讓人把衣服從洗衣機或烘乾機拿走？</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>法官指著那些吵鬧的女人，要求立即安靜。</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="158">
@@ -2611,7 +2611,7 @@
         <v>據知你會通過聽他們唱歌來理解他們的語言。</v>
       </c>
       <c r="D158" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="159">
@@ -2625,7 +2625,7 @@
         <v>他奶奶而家情況好差。</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>如果你寄出這張特定的卡，你就可以獲得一杯免費咖啡。</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="161">
@@ -2653,7 +2653,7 @@
         <v>如果我們能看到證據顯示那些人正在離開國家，那麼那些人就不會留下來。</v>
       </c>
       <c r="D161" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="162">
@@ -2667,7 +2667,7 @@
         <v>雖然是很久之前的事，但它仍然非常重要。</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>有些人想知道如果克林頓被傳召到法庭會不會行使第五修正案。</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>去維多利亞峰花園需要行一段路。</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>如果你在年底之前不使用它，它就會消失。</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>在創傷和急救期刊上發表文章是改變實踐的唯一方法。</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>賣家不一定在某個州有足夠的實體存在。</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>敘述者是一位吸血鬼，這是他們的吸血鬼能力之一。</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>如果目前的利率保持不變，國債的市場價格將保持不變。</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>這是一部叫做Saab的奇怪汽車，不確定在那裡是否存在。</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>沒有任何理由讓任何政府對這個產品實施禁運。</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="172">
@@ -2807,7 +2807,7 @@
         <v>你唔明白信用點運作嗎？</v>
       </c>
       <c r="D172" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="173">
@@ -2821,7 +2821,7 @@
         <v>我們與這間公司沒有任何帳單經驗。</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>無溝通就一定無謊言。</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>如果你健康不好，養老院是一個好主意。</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>如果這種商品免費提供，需求將會上升。</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>他們願意面對嚴酷的環境並留在俄羅斯。</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="178">
@@ -2891,7 +2891,7 @@
         <v>我們沒有年級預算。</v>
       </c>
       <c r="D178" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="179">
@@ -2905,7 +2905,7 @@
         <v>如果不是因為Gae Aulenti，18世紀的Grassi宮將會無法展示。</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>與孩子一起工作的父母讓他們處於一個很大的劣勢。</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2947,7 +2947,7 @@
         <v>林肯並不擔心，慢慢地走著。</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>我思考過我是否做得好。</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2975,7 +2975,7 @@
         <v>我用我的小劍打你。</v>
       </c>
       <c r="D184" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="185">
@@ -2989,7 +2989,7 @@
         <v>我們贏了，這是顯而易見的。</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>當沒有陽光時，我感覺就像生活在一個洞穴裡。</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>行路會令你迷路</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>隊伍中的投訴沒有帶來任何結果。</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>大家都知道湯米根本不夠聰明去理解這個聯繫。</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>我有理由懷疑曼徹斯特的女孩只是個臥底。</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="191">
@@ -3073,7 +3073,7 @@
         <v>誡命不是一種宗教。</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>如果該組織對其業務目標有清晰的理解，它將能夠利用所提議的信息系統來實現這些目標。</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="193">
@@ -3101,7 +3101,7 @@
         <v>他不會犯錯。</v>
       </c>
       <c r="D193" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="194">
@@ -3115,7 +3115,7 @@
         <v>該產品經過測試，以評估其抵抗不利環境條件的能力。</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>他們會說他們已經準備好出發了。</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>我們需要改變規則。</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>我不在那個地址。</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>國家將能夠控制軍隊。</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>如果警方相信這宗罪案是由一個人犯下的，他們會逮捕那個人。</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>我會自己做。</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>如果實施新政策，醫療系統將會面臨壓力。</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3227,7 +3227,7 @@
         <v>我可以做到。</v>
       </c>
       <c r="D202" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="203">
@@ -3241,7 +3241,7 @@
         <v>民主黨將會贏得白宮。</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>我會寫封信給你。</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>你可以搭火車。</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>如果她翻白眼，那她就是在諷刺。</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="207">
@@ -3297,7 +3297,7 @@
         <v>你唔會離開。</v>
       </c>
       <c r="D207" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="208">
@@ -3311,7 +3311,7 @@
         <v>測試的成本會很高。</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>如果你得不到某樣東西，你就不值得擁有它。</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>我不是一個聰明的人。</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="211">
@@ -3367,7 +3367,7 @@
         <v>月亮上的人沒有信息要傳達。</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>你會變得像我一樣。</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3409,7 +3409,7 @@
         <v>我們將會是世界上唯一一個不會……的國家。</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>郵政服務並沒有關閉。</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>如果我們沒有攻擊北越，他們就不會攻擊我們。</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>這個想法沒有經過深思熟慮。</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>一把刀刺入了我的心。</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>如果你不聽我說的話，你就要承擔後果。</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="221">
@@ -3493,7 +3493,7 @@
         <v>如果你是無辜的，你會被假定為無辜。</v>
       </c>
       <c r="D221" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="222">
@@ -3507,7 +3507,7 @@
         <v>參議院通過了預算</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>你不能被信任使用槍。</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>送貨路線利潤率的標準差很小。</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>問題並不相同。</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>老話真係有道理。</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>州長預期會任命一位特別檢察官。</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>美國會變成一個香蕉共和國。</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="229">
@@ -3619,7 +3619,7 @@
         <v>監視者只有在密切關注監視者的情況下，才能密切關注事物。</v>
       </c>
       <c r="D230" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="231">
@@ -3633,7 +3633,7 @@
         <v>這樣的結果是引起了更多公眾對藝術的興趣。</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>問題的根本原因未被識別。</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>這本書是魔幻的。</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="234">
@@ -3689,7 +3689,7 @@
         <v>未來不可能發生類似的情況。</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>轉讓的財產的公允價值與收到的財產的價值相同。</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>發明這個的那個人對它有問題。</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>如果我們可以說有一個單一的身份，那就是一個集體身份。</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>穿著你的西裝去派對並不會不吉利。</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>狗不在房間裡，所以聲音聽不到。</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>元首並沒有下令在集中營中消滅猶太人。</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="242">
@@ -3787,7 +3787,7 @@
         <v>如果你處於我的境地，你會更加小心。</v>
       </c>
       <c r="D242" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="243">
@@ -3801,7 +3801,7 @@
         <v>我知道這一點是真的。</v>
       </c>
       <c r="D243" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="244">
@@ -3815,7 +3815,7 @@
         <v>如果他沒有停下來，他會被視為一個傻瓜。</v>
       </c>
       <c r="D244" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="245">
@@ -4235,7 +4235,7 @@
         <v>我會知道點樣做。</v>
       </c>
       <c r="D274" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="275">
@@ -4249,7 +4249,7 @@
         <v>如果你不是太過追求完美，你就能製作出一個好的產品。</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="276">
@@ -4277,7 +4277,7 @@
         <v>適當的下一步是聯絡接收計劃，以獲得轉介到接收 II 計劃。</v>
       </c>
       <c r="D277" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="278">
@@ -4291,7 +4291,7 @@
         <v>士兵已經死了。</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>我需要找一份工作。</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="280">
@@ -4319,7 +4319,7 @@
         <v>他說他會和我一起去阿爾伯特音樂廳的音樂會。</v>
       </c>
       <c r="D280" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="281">
@@ -4333,7 +4333,7 @@
         <v>我仲未睇過。</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>如果目前的利率保持不變，國債的市場價格也會保持不變。</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>非牟利機構無法改變世界。</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="284">
@@ -4375,7 +4375,7 @@
         <v>如果我能幫到忙，我會這樣做。</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>機器並不是工人的老闆。</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>你確定嗎？</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>這需要重新評估。</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="288">
@@ -4431,7 +4431,7 @@
         <v>我覺得你非常聰明。</v>
       </c>
       <c r="D288" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="289">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -3829,7 +3829,7 @@
         <v>如果我瞓著，我會錯過電影。</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>該設施將無法確定是否符合該規則的要求。</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>她看起來好像剛剛收了錢。</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>我唔需要。</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>總統是一位政治家。</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="250">
@@ -3913,7 +3913,7 @@
         <v>政黨將會對這個問題表態。</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>郵政服務局將能夠在未來至少十年內支付其對聯邦政府的退休健康福利的現有義務。</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>危機將會持續惡化。</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>高水平的債務是一個問題。</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>戰爭尚未結束。</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>解決問題的最好方法是擺脫所有的車輛。</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -3997,7 +3997,7 @@
         <v>市議會必須要做這件事。</v>
       </c>
       <c r="D257" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="258">
@@ -4011,7 +4011,7 @@
         <v>如果你在排隊等候很久，最好不要去小食亭。那裡通常都是一堆吵鬧的小孩。</v>
       </c>
       <c r="D258" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="259">
@@ -4025,7 +4025,7 @@
         <v>如果你不去做，你會後悔的。</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>明日的科技能夠解決今天的問題。</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>在家庭和學校進行的社會化和學習過程被中斷了。</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>葡萄酒可以製成醋。</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>美元會下跌，日圓會上升。</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>修訂將於2017年1月1日生效。</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>唯一能拯救我們的是如果我們能達成共識的區域。</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>學區不能發行債券。</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>如果勞動成本不調整，則勞動生產力是否會調整尚不清楚。</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="268">
@@ -4151,7 +4151,7 @@
         <v>好人不一定是壞人。</v>
       </c>
       <c r="D268" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="269">
@@ -4165,7 +4165,7 @@
         <v>史密斯先生見到咗一個鬼。</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>目前的模型很差。</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>識別病人是否有暴飲暴食並不僅僅取決於一次飲酒的數量。</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>製作人必須支付最低工資。</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>新合約將於2015年1月1日生效。</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -5621,7 +5621,7 @@
         <v>蘭迪買了一些伏特加。</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>市民們不想要新總統。</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>布朗·斯特羅曼對布洛克·萊斯納有問題。</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>伊桑食咗意大利菜。</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>你的數據計劃由你的電話運營商決定。</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="378">
@@ -5705,7 +5705,7 @@
         <v>魯夫斯·韋恩賴特的《我不知道這是什麼》是在他的第二張專輯之後，但在2004年7月27日之前發行的。</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="380">
@@ -5719,7 +5719,7 @@
         <v>在1950年代，美國聯邦調查局開始維持一份公眾名單，列出他們認為的十大最受通緝罪犯。</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5733,7 +5733,7 @@
         <v>成為一位好老闆的第二步，是對工作及成功所需的條件有出色的理解。</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5747,7 +5747,7 @@
         <v>匿名的文本不會透露你的名字。</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="383">
@@ -5761,7 +5761,7 @@
         <v>緬因州的巴斯市和薩加達霍克縣由民主黨地板領袖瑪麗·斯莫爾代表。</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5775,7 +5775,7 @@
         <v>Kate 的女兒是反社會的。</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5789,7 +5789,7 @@
         <v>Pamunuwa 不在東部省內。</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5817,7 +5817,7 @@
         <v>Sammy 認真地練習棒球。</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5831,7 +5831,7 @@
         <v>史蒂芬的童年愛好變成了職業</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5845,7 +5845,7 @@
         <v>政府裡的人互相指責，充滿仇恨。</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5859,7 +5859,7 @@
         <v>《女孩想要什麼》在比利時獲得了銀級認證。</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5873,7 +5873,7 @@
         <v>神經性厭食症被錯誤地認為是以限制食物為特徵。</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="392">
@@ -5887,7 +5887,7 @@
         <v>蒂娜·特纳為一部《印地安納·瓊斯》電影創作了一首歌。</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5901,7 +5901,7 @@
         <v>懷亞特·厄普是一個人類。</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5915,7 +5915,7 @@
         <v>蒂娜·特纳為《金眼》創作了一首歌。</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="395">
@@ -5929,7 +5929,7 @@
         <v>德米·洛瓦托是小吃的倡導者。</v>
       </c>
       <c r="D395" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="396">
@@ -5943,7 +5943,7 @@
         <v>DJ Khaled 在2008年9月11日之後改名。</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5971,7 +5971,7 @@
         <v>蘭道·弗拉格曾在《末日之戰》和《黑塔》中出現。</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5985,7 +5985,7 @@
         <v>《女孩想要什麼》在美國獲得了金唱片認證。</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -5999,7 +5999,7 @@
         <v>梅根·福克斯曾與費斯·福特合作。</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">
@@ -6013,7 +6013,7 @@
         <v>《黑暗騎士》發生在哥譚市。</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -4627,7 +4627,7 @@
         <v>Brook 第一次試食泰國菜。</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>P60 是一封來自學校董事會成員的信，寄給編輯，裡面重述了案件的經過。</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>學校圖書館有年鑑。</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>這個故事是由一個男人報導的。</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>指引並不建議人們在中午時分準備咖啡。</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>我同Jason唔太合得來。</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="308">
@@ -4711,7 +4711,7 @@
         <v>他們指的是一把小提琴。</v>
       </c>
       <c r="D308" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="309">
@@ -4725,7 +4725,7 @@
         <v>某些物質因其對環境的影響需要從市場上撤回。</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>委員會正在考慮一項有關風能的提案。</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>這個男人鄙視德國。</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>需要水</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">
@@ -4781,7 +4781,7 @@
         <v>馬克·卡文迪許退出了環法自行車賽。</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>在你表明為何認為她是你故事的好來源後，等到訪問結束後再勒索她。</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>皇室支持者只穿黃色。</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>想起一個美好的回憶可以幫助寫一封信。</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>右箭頭指示了正確的方向。</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>有些水果最好避免食用。</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>Tie Dye 下次生日將滿十八歲。</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4879,7 +4879,7 @@
         <v>新學生需要有人帶他四處看看。</v>
       </c>
       <c r="D320" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="321">
@@ -4893,7 +4893,7 @@
         <v>歐洲人在波士尼亞擔任維和部隊。</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="322">
@@ -4949,7 +4949,7 @@
         <v>蘇茜需要修剪一下。</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>這是一個二手玩具。</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>槍械價格昂貴，警方需要將資金重新分配給他們。</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="328">
@@ -5005,7 +5005,7 @@
         <v>在這個情境下的最後一句話是一個諷刺的評論。</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>蘭迪只喝他買的11%飲品。</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>一定要先用抗菌肥皂洗手，然後用大量清水徹底沖洗乾淨。</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>《地獄之門》在美國先於泰國推出。</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>他的辦公室多年來一直擔任各種私隱守則的監督。</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>莎拉沒有買椰菜汁。</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>Dire Straits 從來不想在美國受歡迎。</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>健康的人從來不會生病。</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>伊桑訪問了美國的鄰居。</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>預算措施包括已償還的貸款。</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>Tim 需要新的托盤。</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>Tim 最後因為單身派對而在婚禮前拋棄了他的未婚妻。</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>槍械法規很重要，但不代表愛護孩子。</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>私隱專員一直是監察的倡導者。</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>史蒂芬游泳游了很長時間。</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>塔斯馬尼亞立法會想要搬離霍巴特。</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5229,7 +5229,7 @@
         <v>他們支持北方聯盟條約</v>
       </c>
       <c r="D345" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="346">
@@ -5243,7 +5243,7 @@
         <v>餵養新生的小狗需要很多用品。</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>滑翔傘對露西來說是一個夢想成真。</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>山姆叔叔將他的第一張專輯命名為《山姆叔叔》。</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>原告對法官的評論被記錄在案表示反對。</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>Reba 被一個搶匪搶走了她的手錶。</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>將煎鍋放在爐子上。</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>他執導過的電影包括《漢克與尋找幸福》、《意外之喜》和《我們要跳舞嗎？》</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>解決方案並不是基於對哥倫比亞毒品黑幫的積極打擊。</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>需要一把非常大的椅子來用電鑽製作西瓜冰沙。</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>喬希想念他的家。</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>總統發動了一場戰爭。</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>我老公說得對，我的高爾夫球打得很差。</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>亞歷杭德羅·赫爾西是一位墨西哥製作人。</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>他們早上九點半離開。</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>加拿大的保守黨想在下議院討論可負擔住房問題。</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>氰化物不是必需的</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>她飛過了河。</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>敘述者想知道蘭德里先生是否獲得了所有信息。</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>我希望人類發展部部長和她的官員們真的能夠注意到我所說的話。</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>跑100米短跑需要的耐力訓練不多。</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>艾倫·梅特曾執導過戰爭電影。</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>伊斯蘭聖戰組織希望釋放其領袖並解除對伊朗的禁運。</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>安娜與人互動</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>樹倒咗。</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>勞工法例已在眾議院進展。</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>來自維珍尼亞州阿靈頓的44歲凱文·文森特表示，他的妻子購買了Aleve品牌的對乙醯氨基酚，他想了解更多有關這個問題的資訊。</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>紅衫軍是農村和貧困人士的支持者，並支持總理。</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="373">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -6027,7 +6027,7 @@
         <v>《搏擊俱樂部》由布拉德·皮特主演。</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="403">
@@ -6041,7 +6041,7 @@
         <v>每個人都需要一個最好的朋友來自一段YouTube影片。</v>
       </c>
       <c r="D403" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="404">
@@ -6055,7 +6055,7 @@
         <v>《神秘博士》獨自旅行</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6069,7 +6069,7 @@
         <v>海倫·亨特參與了5部電影，其中海倫·亨特吃了一個漢堡。</v>
       </c>
       <c r="D405" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="406">
@@ -6083,7 +6083,7 @@
         <v>傑夫·貝索斯是Facebook的創辦人。</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="407">
@@ -6097,7 +6097,7 @@
         <v>蒂娜·特纳的专辑《打破每个规则》获得了金唱片。</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6111,7 +6111,7 @@
         <v>道克·霍利迪從未在亞特蘭大開業。</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6125,7 +6125,7 @@
         <v>心理學是學術界的一個學科。</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -6139,7 +6139,7 @@
         <v>納倫德拉·莫迪是一位印度政治家。</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6153,7 +6153,7 @@
         <v>《神秘博士》由多位演員飾演。</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6167,7 +6167,7 @@
         <v>卡普蘭想實現他的願景。</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="413">
@@ -6181,7 +6181,7 @@
         <v>他收到了一份報告，內容顯示他想要的每年情況。</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="414">
@@ -6195,7 +6195,7 @@
         <v>這些猶太潔食法則讓受保護的動物得以繁衍生息。</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="415">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -6223,7 +6223,7 @@
         <v>媒體需要重組，以消除任何洩漏。</v>
       </c>
       <c r="D416" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="417">
@@ -6237,7 +6237,7 @@
         <v>克萊曼想讓其他人相信他是有條理的。</v>
       </c>
       <c r="D417" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="418">
@@ -6251,7 +6251,7 @@
         <v>世界將在宏觀經濟的良好指導下運行。</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="419">
@@ -6265,7 +6265,7 @@
         <v>喬伊斯搵唔到佢想要的那件東西。</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="420">
@@ -6279,7 +6279,7 @@
         <v>作者故意讓問題變得模糊。</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="421">
@@ -6293,7 +6293,7 @@
         <v>這位女士沒有臨終願望。</v>
       </c>
       <c r="D421" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="422">
@@ -6307,7 +6307,7 @@
         <v>儘管在其有前景的開始時有一些高期望，但該品牌一直在穩步下滑。</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="423">
@@ -6321,7 +6321,7 @@
         <v>所有巴塞特獒都有良好的判斷力。</v>
       </c>
       <c r="D423" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="424">
@@ -6335,7 +6335,7 @@
         <v>我鍾意所有Mazda車。</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6349,7 +6349,7 @@
         <v>他們需要被聆聽。</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6363,7 +6363,7 @@
         <v>他們需要知道那個男人的名字。</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6377,7 +6377,7 @@
         <v>格林斯潘的聲明需要重新表述。</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="428">
@@ -6391,7 +6391,7 @@
         <v>作者希望里根受到批評。</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6405,7 +6405,7 @@
         <v>這位女士是單身。</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="430">
@@ -6419,7 +6419,7 @@
         <v>Katz 非常渴望能夠在《華盛頓郵報》上發表文章。</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="431">
@@ -6433,7 +6433,7 @@
         <v>微軟在其市場上是一個強大的參與者，具備中和問題的能力。</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="432">
@@ -6447,7 +6447,7 @@
         <v>Springer 唔受歡迎。</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="433">
@@ -6461,7 +6461,7 @@
         <v>每個人都應該關心自己的事，別插手她的感情生活。</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="434">
@@ -6475,7 +6475,7 @@
         <v>英國建造了一條長長的高速公路。</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="435">
@@ -6489,7 +6489,7 @@
         <v>仍然有些人想送禮物。</v>
       </c>
       <c r="D435" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="436">
@@ -6503,7 +6503,7 @@
         <v>士兵們想要幫助她。</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="437">
@@ -6517,7 +6517,7 @@
         <v>麥凱恩想要提高所有人的稅收。</v>
       </c>
       <c r="D437" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="438">
@@ -6531,7 +6531,7 @@
         <v>主角和她的兄弟們在日本長大。</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="439">
@@ -6545,7 +6545,7 @@
         <v>假釋者一直遵守法律。</v>
       </c>
       <c r="D439" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="440">
@@ -6559,7 +6559,7 @@
         <v>傑西·文圖拉不想帕特獲得提名。</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6573,7 +6573,7 @@
         <v>新技術將突發新聞投放到報紙上。</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="442">
@@ -6587,7 +6587,7 @@
         <v>這個數量相對於所需的來說是少得多。</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="443">
@@ -6601,7 +6601,7 @@
         <v>基爾克巴澤的公會需要他的錢。</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6615,7 +6615,7 @@
         <v>共和黨人經常在預算赤字時尋求回饋給他們的貧困選民。</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6629,7 +6629,7 @@
         <v>PointCast 正在嘗試作為一間公司推出它的第一款軟件產品。</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="446">
@@ -6643,7 +6643,7 @@
         <v>貝特海姆專注於作為指導者的重要性</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="447">
@@ -6657,7 +6657,7 @@
         <v>今天對拯救小說感到焦慮的評論家，四十年前卻想要扼殺它。</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">
@@ -6671,7 +6671,7 @@
         <v>波洛克的職業生涯很短。</v>
       </c>
       <c r="D448" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="449">
@@ -6685,7 +6685,7 @@
         <v>女人滿足男人對速度的需求</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6699,7 +6699,7 @@
         <v>削減社會支付系統會給國家領導人帶來壓力。</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="451">
@@ -6713,7 +6713,7 @@
         <v>歐洲政府對回撥服務徵收高額稅款。</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -6727,7 +6727,7 @@
         <v>聯邦政府知道災難資金是非常受歡迎的。</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6741,7 +6741,7 @@
         <v>我對目前的進展感到非常滿意。</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="454">
@@ -6755,7 +6755,7 @@
         <v>有些人想放棄特別檢察官。</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6769,7 +6769,7 @@
         <v>我想找《加百列的火》，這是我最喜歡的。</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6783,7 +6783,7 @@
         <v>LSC對所提出的指導的有效性表示懷疑。</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="457">
@@ -6797,7 +6797,7 @@
         <v>Tommy 真係好想知道。</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6811,7 +6811,7 @@
         <v>這篇評論將試圖反駁介入的理由。</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="459">
@@ -6825,7 +6825,7 @@
         <v>無法知道這項立法是否有效。</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="460">
@@ -6839,7 +6839,7 @@
         <v>看到罐子裡的東西令他想嘔吐。</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">
@@ -6853,7 +6853,7 @@
         <v>她雖然不想緊張，但還是感到緊張。</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="462">
@@ -6867,7 +6867,7 @@
         <v>我個仔真係好想要隻狗。</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">
@@ -6881,7 +6881,7 @@
         <v>隨著多個地點的增加，對培訓和監督的要求也隨之增加。</v>
       </c>
       <c r="D463" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="464">
@@ -6895,7 +6895,7 @@
         <v>雖然他一般喜歡他的環境，但他想儘快離開，以避免秋天的暴雨。</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="465">
@@ -6909,7 +6909,7 @@
         <v>斯波克試圖背叛他的妻子。</v>
       </c>
       <c r="D465" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="466">
@@ -6923,7 +6923,7 @@
         <v>價格需要被限制。</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="467">
@@ -6937,7 +6937,7 @@
         <v>我丈夫很高興讓我負責照顧花，而他則按照自己喜歡的方式維護草坪。</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="468">
@@ -6951,7 +6951,7 @@
         <v>他們真的把我們的家庭聚會搞得一團糟。</v>
       </c>
       <c r="D468" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="469">
@@ -6965,7 +6965,7 @@
         <v>我想買一間有露台的屋，但我決定買一間沒有的。</v>
       </c>
       <c r="D469" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="470">
@@ -6979,7 +6979,7 @@
         <v>政黨想要他儘快離開。</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -6993,7 +6993,7 @@
         <v>我決定我不需要吃東西。</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="472">
@@ -7007,7 +7007,7 @@
         <v>Vrenna 想知道 Kal 是否會去。</v>
       </c>
       <c r="D472" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="473">
@@ -7021,7 +7021,7 @@
         <v>無論如何，沒有任何代理人願意為克林頓說謊。</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="474">
@@ -8673,7 +8673,7 @@
         <v>我唔想去。</v>
       </c>
       <c r="D591" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="592">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -7035,7 +7035,7 @@
         <v>我們想要給盧溫斯基匯款。</v>
       </c>
       <c r="D474" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="475">
@@ -7049,7 +7049,7 @@
         <v>功能需求和倡導需求總是保持一致。</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7063,7 +7063,7 @@
         <v>德魯不想傷害香農。</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">
@@ -7077,7 +7077,7 @@
         <v>佢哋真係令家庭團聚過程變得好簡單。</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7091,7 +7091,7 @@
         <v>我希望有一天可以見到它。</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="479">
@@ -7105,7 +7105,7 @@
         <v>在這段時間，布希家族不想和我有任何關係。</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="480">
@@ -7119,7 +7119,7 @@
         <v>我們需要記住一些想法。</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7133,7 +7133,7 @@
         <v>這位天文學家對於為什麼人們即使已經上過太空仍然想要煤和石油這個問題感到困惑，並詢問了造成這種困惑的原因。</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="482">
@@ -7147,7 +7147,7 @@
         <v>GAO 和 IGs 需要建立穩固的關係。</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="483">
@@ -7161,7 +7161,7 @@
         <v>多謝你一直提醒我，當我試圖表達情感時的堅持。</v>
       </c>
       <c r="D483" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="484">
@@ -7175,7 +7175,7 @@
         <v>我們想要小孩。</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7189,7 +7189,7 @@
         <v>我們希望透過HRC標誌創造一絲希望。</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7203,7 +7203,7 @@
         <v>我在隨後的春天完全鋪好了我的車道。</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="487">
@@ -7217,7 +7217,7 @@
         <v>傑克遜需要幫助。</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="488">
@@ -7231,7 +7231,7 @@
         <v>第二階段計劃於17世紀末進行。</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7245,7 +7245,7 @@
         <v>我需要離開。</v>
       </c>
       <c r="D489" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="490">
@@ -7259,7 +7259,7 @@
         <v>我係嗰本雜誌文章度睇到嘅。</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7273,7 +7273,7 @@
         <v>Gilder 無需任何藉口來寫技術文檔。</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="492">
@@ -7287,7 +7287,7 @@
         <v>好的領導者可以幫助組織克服對變革的抵抗。</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7301,7 +7301,7 @@
         <v>它需要不斷上發條，準確度在五分鐘內。</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7315,7 +7315,7 @@
         <v>他們知道獲得資訊的力量。</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7329,7 +7329,7 @@
         <v>找到他的辦公室在哪裡很困難。</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7357,7 +7357,7 @@
         <v>他需要時間。</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="498">
@@ -7371,7 +7371,7 @@
         <v>居民想要在早上八點取信。</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7385,7 +7385,7 @@
         <v>因為他們是印度教徒，尼赫魯的國大黨由社會主義者領導。</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="500">
@@ -7399,7 +7399,7 @@
         <v>辛西婭對草過敏，根本不會碰它。</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="501">
@@ -7413,7 +7413,7 @@
         <v>轟炸國家會影響你的支持率。</v>
       </c>
       <c r="D501" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="502">
@@ -7427,7 +7427,7 @@
         <v>Fridlund-Hume 警告不要過於努力去顯得正確。</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="503">
@@ -7441,7 +7441,7 @@
         <v>在蘇聯，有很多不同的文化試圖在一個國家內共存。</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7455,7 +7455,7 @@
         <v>不幸的是，我在家工作時不能隨便穿任何衣服。</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7469,7 +7469,7 @@
         <v>我希望你能自由地做出你想要的選擇。</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="506">
@@ -7483,7 +7483,7 @@
         <v>不過，你確實需要留意主要的鵝卵石街道。</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7497,7 +7497,7 @@
         <v>我知道巴拿馬對毒品非常嚴肅。</v>
       </c>
       <c r="D507" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="508">
@@ -7511,7 +7511,7 @@
         <v>所附的測驗可以用來診斷醫療問題。</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="509">
@@ -7525,7 +7525,7 @@
         <v>想參與這份興奮</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="510">
@@ -7539,7 +7539,7 @@
         <v>主席希望保持任務的力量。</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="511">
@@ -7553,7 +7553,7 @@
         <v>伯曼在海洋上航行，展開一段靈性之旅。</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="512">
@@ -7567,7 +7567,7 @@
         <v>我想叫她唔好咁講。</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7581,7 +7581,7 @@
         <v>我會強迫艾蜜莉按照我想要的方式去做。</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="514">
@@ -7595,7 +7595,7 @@
         <v>70年代的支持選擇權者不想與新興的女性主義運動聯繫在一起。</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="515">
@@ -7609,7 +7609,7 @@
         <v>顯然他不需要使用任何方法來取得成功。</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7623,7 +7623,7 @@
         <v>你需要望遠鏡才能好好觀察第三層的拱門。</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7637,7 +7637,7 @@
         <v>你只是希望他犯了那個罪嗎？</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="518">
@@ -7651,7 +7651,7 @@
         <v>「我不想將食物賣給那些無法欣賞其真正愉悅本質的人。」他回答。</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7679,7 +7679,7 @@
         <v>他們想要我在他們的入口處種玫瑰。</v>
       </c>
       <c r="D520" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="521">
@@ -7693,7 +7693,7 @@
         <v>第一個網站功能會將你重定向到主頁。</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7707,7 +7707,7 @@
         <v>瑞爾森認為需要更嚴格的法律來保護環境。</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="523">
@@ -7721,7 +7721,7 @@
         <v>他希望生活在貧困中的青少年採取措施，以防止他們生育孩子。</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7735,7 +7735,7 @@
         <v>我正在進行報價，因為我想要粉刷我的房子。</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="525">
@@ -7749,7 +7749,7 @@
         <v>他們需要額外的收入。</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="526">
@@ -7763,7 +7763,7 @@
         <v>我做我想做的事。</v>
       </c>
       <c r="D526" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="527">
@@ -7777,7 +7777,7 @@
         <v>我知道你叫Antonio，無需重複。</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7791,7 +7791,7 @@
         <v>多諾萬·奧爾森去年十二月被任命為郡監事會主席。</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7805,7 +7805,7 @@
         <v>我想見見真正的布朗先生。</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="530">
@@ -7819,7 +7819,7 @@
         <v>氣溫會下降。</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="531">
@@ -8687,7 +8687,7 @@
         <v>多元化能源供應對能源安全非常重要。</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="593">
@@ -8701,7 +8701,7 @@
         <v>佩吉小姐想說約翰很幸運。</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8715,7 +8715,7 @@
         <v>當地學校董事會的負責人有能力去做他想做的事。</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="595">
@@ -8729,7 +8729,7 @@
         <v>需要進行討論。</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8743,7 +8743,7 @@
         <v>多斯拉克人想要入侵喀爾斯城。</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="597">
@@ -8757,7 +8757,7 @@
         <v>有些事情需要去處理。</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="598">
@@ -8771,7 +8771,7 @@
         <v>新隊伍致力於教練所嘗試的目標。</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="599">
@@ -8785,7 +8785,7 @@
         <v>當我不那麼緊張的時候，我對她更開放。</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="600">
@@ -8799,7 +8799,7 @@
         <v>組織需要改變。</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="601">
@@ -8813,7 +8813,7 @@
         <v>這個測試不可靠。</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="602">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -7833,7 +7833,7 @@
         <v>Fieldstone 想要找到一個可行的解決方案來處理止贖問題。</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="532">
@@ -7847,7 +7847,7 @@
         <v>我們需要重新裝飾屋內的多個房間。</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">
@@ -7861,7 +7861,7 @@
         <v>我對電腦有更多經驗，所以我承擔了大部分的工作。</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="534">
@@ -7875,7 +7875,7 @@
         <v>丈夫把鑰匙給了她，讓她停放Orshe。</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="535">
@@ -7889,7 +7889,7 @@
         <v>我可以將這些任務推遲到課堂之後再做。</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="536">
@@ -7903,7 +7903,7 @@
         <v>北方和南方的貿易區域將不會被創建。</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7917,7 +7917,7 @@
         <v>馬克西姆酒店需要翻新。</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7931,7 +7931,7 @@
         <v>石油輸出國組織對經濟感到擔憂。</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="539">
@@ -7945,7 +7945,7 @@
         <v>參議院永遠都不會對這項法案採取行動。</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="540">
@@ -7959,7 +7959,7 @@
         <v>政府的目標是創造符合消費者需求的新產品和服務。</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="541">
@@ -7973,7 +7973,7 @@
         <v>他們想要強調反恐戰爭的重要性。</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7987,7 +7987,7 @@
         <v>我甚至不想要一個伴娘。</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="543">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -8001,7 +8001,7 @@
         <v>這場戰爭的經濟後果是巨大的。</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="544">
@@ -8015,7 +8015,7 @@
         <v>她不想去美國，但她害怕留在自己的國家。</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8029,7 +8029,7 @@
         <v>你試圖弄清楚該怎麼做。</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8043,7 +8043,7 @@
         <v>自由的代價就是做你想做的事的自由。</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="547">
@@ -8057,7 +8057,7 @@
         <v>你可以做任何你想做的事。</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="548">
@@ -8071,7 +8071,7 @@
         <v>他想獲取資訊。</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="549">
@@ -8099,7 +8099,7 @@
         <v>對話是關於記者感興趣的主題。</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="551">
@@ -8113,7 +8113,7 @@
         <v>這部小說講述了一位在自己家中不受歡迎的女性。</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="552">
@@ -8127,7 +8127,7 @@
         <v>學校正在建造一個新的禮堂。</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="553">
@@ -8141,7 +8141,7 @@
         <v>受害者不想報案。</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8155,7 +8155,7 @@
         <v>政府想建立一個醫療保健系統。</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="555">
@@ -8169,7 +8169,7 @@
         <v>我們知道怎樣給我們的孩子服藥嗎？</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="556">
@@ -8183,7 +8183,7 @@
         <v>他們有機會做任何他們想做的事。</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="557">
@@ -8197,7 +8197,7 @@
         <v>律師有很好的機會去幫助貧困人士。</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8211,7 +8211,7 @@
         <v>1992年的聯邦能源政策法案於2005年被廢除。</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8225,7 +8225,7 @@
         <v>你在這裡。</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="560">
@@ -8239,7 +8239,7 @@
         <v>零售服務需要合約。</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="561">
@@ -8253,7 +8253,7 @@
         <v>諾特表示他從來不想做律師。</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8267,7 +8267,7 @@
         <v>這個州正在出售。</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="563">
@@ -8281,7 +8281,7 @@
         <v>科學家想知道政策制定者在做什麼。</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="564">
@@ -8295,7 +8295,7 @@
         <v>持份者可以參與規劃過程。</v>
       </c>
       <c r="D564" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="565">
@@ -8309,7 +8309,7 @@
         <v>她的情緒變化是因為她的朋友。</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8323,7 +8323,7 @@
         <v>在政黨之間對於是否需要單一支付者醫療系統存在著相當大的分歧。</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8337,7 +8337,7 @@
         <v>你有一個真正的問題。</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="568">
@@ -8351,7 +8351,7 @@
         <v>玩一個有0和00的輪盤。</v>
       </c>
       <c r="D568" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="569">
@@ -8365,7 +8365,7 @@
         <v>我不能告訴你我做了什麼。</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="570">
@@ -8379,7 +8379,7 @@
         <v>這個女人不知道她想要什麼。</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8393,7 +8393,7 @@
         <v>佢總是想要係啱嘅。</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="572">
@@ -8407,7 +8407,7 @@
         <v>這個新計劃是解決問題所需的。</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="573">
@@ -8421,7 +8421,7 @@
         <v>你想留下來嗎？</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="574">
@@ -8435,7 +8435,7 @@
         <v>需要警察權力來使法律運作。</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8449,7 +8449,7 @@
         <v>政府沒有做到人民所想要的。</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8463,7 +8463,7 @@
         <v>這個地區將會吸引想來這裡的人。</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8477,7 +8477,7 @@
         <v>佢想變得有錢。</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="578">
@@ -8491,7 +8491,7 @@
         <v>他不會開始一場戰爭。</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="579">
@@ -8505,7 +8505,7 @@
         <v>利文斯頓醫生不喜歡他。</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -8519,7 +8519,7 @@
         <v>有需要推出一個新倡議。</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="581">
@@ -8533,7 +8533,7 @@
         <v>你需要知道球員的名字。</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="582">
@@ -8547,7 +8547,7 @@
         <v>人民需要接受良好的教育。</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="583">
@@ -8561,7 +8561,7 @@
         <v>我們需要考慮系統其他組件的成本。</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="584">
@@ -8575,7 +8575,7 @@
         <v>他已經下定決心想做什麼。</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="585">
@@ -8589,7 +8589,7 @@
         <v>政府需要對經濟採取行動。</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8603,7 +8603,7 @@
         <v>他是一個非常有道德的人。</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="587">
@@ -8617,7 +8617,7 @@
         <v>我想負責運營。</v>
       </c>
       <c r="D587" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="588">
@@ -8631,7 +8631,7 @@
         <v>美國政府希望允許資訊自由流通。</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8645,7 +8645,7 @@
         <v>你去湖上不需要許可證。</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="590">
@@ -8659,7 +8659,7 @@
         <v>有必要對這個主題的文獻進行全面的回顧。</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -8827,7 +8827,7 @@
         <v>更多法裔加拿大人從穆里魚屋爬了下來。</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="603">
@@ -8841,7 +8841,7 @@
         <v>在公共場合接吻需要家長的同意。</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="604">
@@ -8855,7 +8855,7 @@
         <v>安德莉亞·霍布斯堡是她家裡最大的孩子。</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8869,7 +8869,7 @@
         <v>國家公園信託已經在超過20個高優先級地點出售土地。</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="606">
@@ -8883,7 +8883,7 @@
         <v>生態缸必須用塑膠或玻璃製成。</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="607">
@@ -8897,7 +8897,7 @@
         <v>用來防止河岸侵蝕的材料是不可生物降解的。</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8911,7 +8911,7 @@
         <v>唐納德·康羅伊去世，享年67歲。</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8925,7 +8925,7 @@
         <v>除了與美國另類搖滾樂隊10,000 Maniacs合作編輯音樂，瑪麗·蘭姆齊還應被視為民謠搖滾二人組約翰與瑪麗的成員。</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8953,7 +8953,7 @@
         <v>一個瓦爾德茲需要你坐直。</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8967,7 +8967,7 @@
         <v>發言人正處於他的第二個任期。</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="613">
@@ -8981,7 +8981,7 @@
         <v>珍妮特是一位叔叔。</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -8995,7 +8995,7 @@
         <v>阿比亞州的州長同時也是總統。</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="615">
@@ -9009,7 +9009,7 @@
         <v>沃爾特·穆雷說這是一個愚蠢的攻擊。</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="616">
@@ -9023,7 +9023,7 @@
         <v>無限制的海洋保險只適用於商業船隻，並不適用於個人。</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="617">
@@ -9037,7 +9037,7 @@
         <v>康斯坦斯對談話或話題並不感興趣。</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="618">
@@ -9051,7 +9051,7 @@
         <v>腸易激綜合症患者應該只飲水。</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="619">
@@ -9065,7 +9065,7 @@
         <v>《新的一天》是牙買加作家V. S. Reid於1949年出版的書籍。它已經超過46年歷史。</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9079,7 +9079,7 @@
         <v>該條約的投票年齡介乎25至30歲。</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="621">
@@ -9093,7 +9093,7 @@
         <v>專輯以D開頭。</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9107,7 +9107,7 @@
         <v>艾德·伊根在活躍名單上出場。</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="623">
@@ -9121,7 +9121,7 @@
         <v>卡內洛·阿瓦雷茲對胡里奧·塞薩爾·查韋斯小時的比賽是在2016年之後舉行的。</v>
       </c>
       <c r="D623" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="624">
@@ -9135,7 +9135,7 @@
         <v>這款髮品不便宜。</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9149,7 +9149,7 @@
         <v>皮爾斯因自然原因去世。</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9163,7 +9163,7 @@
         <v>皮膚癌與臭氧層有關。</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="627">
@@ -9191,7 +9191,7 @@
         <v>Big Data 是由 Joywave 創建的項目。</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9205,7 +9205,7 @@
         <v>要透過手術治療肌肉骨骼疼痛，首先要讓肌肉休息。</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="630">
@@ -9233,7 +9233,7 @@
         <v>手術由外科醫生進行。</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="632">
@@ -9261,7 +9261,7 @@
         <v>布雷耶法官是一位出版商。</v>
       </c>
       <c r="D633" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="634">
@@ -9275,7 +9275,7 @@
         <v>市政當局和市鎮的意思是一樣的。</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="635">
@@ -9289,7 +9289,7 @@
         <v>凱特·摩斯推出了她自己的髮品系列。</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9303,7 +9303,7 @@
         <v>這個系列是關於一位名叫傑基·埃文斯的退休爵士音樂家。</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="637">
@@ -9317,7 +9317,7 @@
         <v>威廉·托馬斯·哈里斯是一位加拿大投手，為杜蓋維爾左打。</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="638">
@@ -9331,7 +9331,7 @@
         <v>蛋糕上應該加上糖粒。</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="639">
@@ -9345,7 +9345,7 @@
         <v>藍脊公路位於北卡羅來納州和維吉尼亞州。</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9359,7 +9359,7 @@
         <v>Gent 殯儀館對約翰的死亡負有責任。</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">
@@ -9373,7 +9373,7 @@
         <v>罷工將會導致送貨延遲。</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9387,7 +9387,7 @@
         <v>小組將於1999年春季進行四次旅行。</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="643">
@@ -9401,7 +9401,7 @@
         <v>將分母相乘。</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="644">
@@ -9415,7 +9415,7 @@
         <v>有人會講述唐納德·瑞克爾斯的生活故事。</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9429,7 +9429,7 @@
         <v>阿德爾菲亞並不是美國第九大有線電視服務提供商，擁有近500萬名訂戶。</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9443,7 +9443,7 @@
         <v>加上分子。</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9457,7 +9457,7 @@
         <v>伊爾莎·馮·格拉茨在現實生活中是一位倡導者。</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="648">
@@ -9471,7 +9471,7 @@
         <v>麥基利斯的裁決損害了他們的聲譽。</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="649">
@@ -9485,7 +9485,7 @@
         <v>你應該用羅馬生菜來燜煮。</v>
       </c>
       <c r="D649" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="650">
@@ -9499,7 +9499,7 @@
         <v>丹尼透過在自殺預防熱線做義工，幫助某人做出不同的選擇。</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="651">
@@ -9513,7 +9513,7 @@
         <v>大學美式足球全明星賽的球員參加東西方神龕賽。</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9527,7 +9527,7 @@
         <v>湯瑪斯·瑞安在2008年時52歲。</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="653">
@@ -9541,7 +9541,7 @@
         <v>丹妮知道這會有多難。</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="654">
@@ -9555,7 +9555,7 @@
         <v>當局並未得出這是一宗謀殺的結論。</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9569,7 +9569,7 @@
         <v>亨利在發明這部機器後七年去世。</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9583,7 +9583,7 @@
         <v>塞爾瑪·戴蒙在60歲時去世。</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9597,7 +9597,7 @@
         <v>我嘅家鄉省係薩斯夸奇。</v>
       </c>
       <c r="D657" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="658">
@@ -9611,7 +9611,7 @@
         <v>俄羅斯聽美國的話。</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9625,7 +9625,7 @@
         <v>史蒂芬·切蘭德在國家交通安全委員會工作。</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9639,7 +9639,7 @@
         <v>全明星賽在大學足球的季後賽之後舉行。</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="661">
@@ -9653,7 +9653,7 @@
         <v>教育制度存在嚴重缺陷，沒有任何孩子應該被遺留在後。</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="662">
@@ -9667,7 +9667,7 @@
         <v>嬰兒潮一代是房價飆升的罪魁禍首。</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="663">
@@ -9681,7 +9681,7 @@
         <v>亨克兩日前補了牙。</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="664">
@@ -9695,7 +9695,7 @@
         <v>坦帕隊在1991年選拔過程的第四輪選擇了埃里克森。</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="665">
@@ -9709,7 +9709,7 @@
         <v>維塔是韋克塔的兒子，他喜歡聽琵琶。</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9723,7 +9723,7 @@
         <v>水管爆裂本可以避免。</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9737,7 +9737,7 @@
         <v>五個朋友全都是女性。</v>
       </c>
       <c r="D667" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="668">
@@ -9751,7 +9751,7 @@
         <v>Kota Ramakrishna Karanth 係喺四月之後出世。</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9765,7 +9765,7 @@
         <v>我同事亦提到我們可以接受一些邊緣不錯的建議修改。</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="670">
@@ -9779,7 +9779,7 @@
         <v>藍脊公路已經出售給私人。</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="671">
@@ -9793,7 +9793,7 @@
         <v>講者知道莎拉的眼睛顏色。</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9807,7 +9807,7 @@
         <v>私人團體有興趣從國家公園信託購買土地。</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9821,7 +9821,7 @@
         <v>曼森不會參加第74場比賽。</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9835,7 +9835,7 @@
         <v>ABC 播出《迷失》至少六季。</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="675">
@@ -9849,7 +9849,7 @@
         <v>觸發食物對於了解和避免腸易激綜合症（IBS）和胃食道逆流（GERD）都是非常重要的，因為這兩種情況是相似的。</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="676">
@@ -9863,7 +9863,7 @@
         <v>艾拉·海登的第一部電影角色是在1987年。</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9891,7 +9891,7 @@
         <v>科學諮詢委員會正在接受審計。</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="679">
@@ -9905,7 +9905,7 @@
         <v>蟲會受到狗糞的感染。</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="680">
@@ -9919,7 +9919,7 @@
         <v>拉胡爾·甘地真係好鍾意納倫德拉·莫迪。</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9933,7 +9933,7 @@
         <v>庫珀-弗羅斯特-奧斯丁屋在五月初提供私人導覽。</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="682">
@@ -9947,7 +9947,7 @@
         <v>她在上午十時左右到達。</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="683">
@@ -9961,7 +9961,7 @@
         <v>墮落軸心是一個韓國流行音樂組合。</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9975,7 +9975,7 @@
         <v>大主教應該和教會的其他成員一樣被對待。</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -9989,7 +9989,7 @@
         <v>《料理鼠王》可以在車上播放。</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="686">
@@ -10003,7 +10003,7 @@
         <v>他們回來時都很害怕，所有小朋友會生病。</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10017,7 +10017,7 @@
         <v>詩必須有韻律。</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10031,7 +10031,7 @@
         <v>伊桑可以在同一個花園裡種植香草。</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10045,7 +10045,7 @@
         <v>美國新聞社撰寫了這個公告。</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10059,7 +10059,7 @@
         <v>奧遜·威爾斯是一位製作人。</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10073,7 +10073,7 @@
         <v>喬伊·格雷塞法是一名電腦工程師。</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="692">
@@ -10087,7 +10087,7 @@
         <v>Radiohead 已經發行了三張專輯。</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10101,7 +10101,7 @@
         <v>毒液通常與蜘蛛人有關。</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10115,7 +10115,7 @@
         <v>瑪麗蓮·伯恩斯是一位劍擊運動員。</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="695">
@@ -10129,7 +10129,7 @@
         <v>吉姆·亨森是一位歌手。</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="696">
@@ -10143,7 +10143,7 @@
         <v>卡蘭·喬哈是總裁。</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="697">
@@ -10157,7 +10157,7 @@
         <v>奧遜·威爾斯是一位演員。</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10171,7 +10171,7 @@
         <v>克林特·伊斯特伍德演奏音樂。</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10185,7 +10185,7 @@
         <v>維多利亞女王是某個國家的女王。</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10199,7 +10199,7 @@
         <v>《Warm Leatherette》是由一位女性創作的。</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10213,7 +10213,7 @@
         <v>《X戰警：未來昔日》是在2010年之後上映的。</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10227,7 +10227,7 @@
         <v>喬丹·奈特是一位電影演員。</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10241,7 +10241,7 @@
         <v>明尼蘇達在法國。</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10255,7 +10255,7 @@
         <v>亨廷頓舞蹈症是一種可能會遺傳的疾病。</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10269,7 +10269,7 @@
         <v>蘇·西爾維斯特由一位男性演員獨自飾演。</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10283,7 +10283,7 @@
         <v>琼·克劳馥开始她的职业生涯作为一名演员。</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10297,7 +10297,7 @@
         <v>列奧納多·達文西正在與歷史上最偉大的畫家之一約會。</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="708">
@@ -10311,7 +10311,7 @@
         <v>弗雷德·特朗普在1918年12月時十三歲。</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="709">
@@ -10325,7 +10325,7 @@
         <v>索非亞·科波拉是一款起泡酒。</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10339,7 +10339,7 @@
         <v>《X戰警》（電影）有一位美國演員和歌手，名叫伊恩·麥克連。</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10353,7 +10353,7 @@
         <v>紐卡素聯足球會最成功的時期在1910年5月結束。</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10367,7 +10367,7 @@
         <v>列奧納多·達文西研究了解剖學。</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10381,7 +10381,7 @@
         <v>喬伊·格雷斯法來自一個由聯邦組成的共和國，基於一部憲法。</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="714">
@@ -10395,7 +10395,7 @@
         <v>《Glee》是一部恐怖喜劇。</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">
@@ -10409,7 +10409,7 @@
         <v>《黑名單》首集的導演是在甘迺迪政府期間出生的。</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="716">
@@ -10423,7 +10423,7 @@
         <v>羅曼·雷恩斯是一位園丁。</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10437,7 +10437,7 @@
         <v>泰德·甘迺迪是美國參議員。</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="718">
@@ -10451,7 +10451,7 @@
         <v>《超自然》是一部系列劇。</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10465,7 +10465,7 @@
         <v>第十二任博士是在一部英國電視節目中。</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10479,7 +10479,7 @@
         <v>傑克·帕爾在21世紀的一個日期去世。</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10493,7 +10493,7 @@
         <v>猿人星球在自由女神像附近的拍攝場景。</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10507,7 +10507,7 @@
         <v>《One More Light》是通過CBS發行的。</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="723">
@@ -10521,7 +10521,7 @@
         <v>《Wentworth》是一部電視劇的單集。</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10535,7 +10535,7 @@
         <v>羅伯特·布朗寧是俄羅斯帝國時期的首屈一指的詩人。</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10549,7 +10549,7 @@
         <v>奧黛麗·霍恩在《雙峰：重返》中首次出現。</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="726">
@@ -10563,7 +10563,7 @@
         <v>《降世神通：最後的氣宗》的主角是安昂。</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10577,7 +10577,7 @@
         <v>伊凡·高柏是德國導演。</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10591,7 +10591,7 @@
         <v>辛迪·麥凱恩是美國人。</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10605,7 +10605,7 @@
         <v>Coldplay是一支英國樂隊。</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10619,7 +10619,7 @@
         <v>蒂姆·艾倫主演了一部美國電視節目。</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10633,7 +10633,7 @@
         <v>托尼·布萊爾是保守黨的領袖。</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="732">
@@ -10647,7 +10647,7 @@
         <v>希瑟·沃森是一位冠軍。</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10661,7 +10661,7 @@
         <v>約翰·麥凱恩以其恢復與俄羅斯的外交關係的工作而聞名。</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="734">
@@ -10675,7 +10675,7 @@
         <v>弗拉基米爾·普京曾是政府的主席。</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="735">
@@ -10689,7 +10689,7 @@
         <v>《客人》主演是美國電影演員。</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10703,7 +10703,7 @@
         <v>提摩西·奧利芬特是一隻動物。</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10717,7 +10717,7 @@
         <v>法蘭克·辛納屈的中間名是山姆。</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10731,7 +10731,7 @@
         <v>薩吉·史達龍是一位父親。</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="739">
@@ -10745,7 +10745,7 @@
         <v>毛澤東是俄羅斯人。</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10759,7 +10759,7 @@
         <v>李哈維·奧斯瓦爾德刺殺了美國第35任總統。</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="741">
@@ -10773,7 +10773,7 @@
         <v>加布里耶·西迪比是美國公民。</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10787,7 +10787,7 @@
         <v>《歡樂合唱團》是一部電影。</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10801,7 +10801,7 @@
         <v>托尼·布萊爾是一位演員。</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="744">
@@ -10815,7 +10815,7 @@
         <v>安德森·庫珀是一個人。</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10829,7 +10829,7 @@
         <v>希瑟·沃森是一位母親。</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10843,7 +10843,7 @@
         <v>喬治·克隆尼是一位漫畫家。</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="747">
@@ -10857,7 +10857,7 @@
         <v>艾薇兒·拉維尼是一位音樂家。</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10871,7 +10871,7 @@
         <v>艾米利奧·艾斯特維茲出生於馬槽。</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10885,7 +10885,7 @@
         <v>米蘭達·可兒是一位加拿大維多利亞的秘密模特。</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10899,7 +10899,7 @@
         <v>浩克是一個創造。</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10913,7 +10913,7 @@
         <v>莫妮卡·塞萊斯打網球。</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -10927,7 +10927,7 @@
         <v>《Penny Dreadful》於21世紀開始。</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10941,7 +10941,7 @@
         <v>道格·瓊斯在電影業工作。</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10955,7 +10955,7 @@
         <v>《Warm Leatherette》是由一位出生於牙買加的歌手演唱，於1980年發行。</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="755">
@@ -10969,7 +10969,7 @@
         <v>《Glee》是一部電視劇。</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="756">
@@ -10983,7 +10983,7 @@
         <v>艾絲泰拉·華倫是雙子座。</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="757">
@@ -10997,7 +10997,7 @@
         <v>《絕望的主婦》是一部電視劇。</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11011,7 +11011,7 @@
         <v>艾米納姆是雙子座。</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="759">
@@ -11025,7 +11025,7 @@
         <v>托馬斯·德西蒙在海地失踪。</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11039,7 +11039,7 @@
         <v>威廉·R·托爾伯特二世被殺。</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11053,7 +11053,7 @@
         <v>米蘭達·科斯格羅夫是一名賽車手。</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="762">
@@ -11067,7 +11067,7 @@
         <v>Wynonna Judd 參加水中有氧運動。</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11081,7 +11081,7 @@
         <v>Tré Cool 係 Green Day 嘅鼓手。</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11095,7 +11095,7 @@
         <v>大衛·施威默於2004年10月8日完成《老友記》的演出。</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="765">
@@ -11109,7 +11109,7 @@
         <v>根納迪·戈洛夫金是一名擊劍運動員。</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="766">
@@ -11123,7 +11123,7 @@
         <v>丹尼斯·霍普是一個人。</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11137,7 +11137,7 @@
         <v>薩吉·史達龍出生於中國。</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11151,7 +11151,7 @@
         <v>勞倫斯·奧利維爾在美國。</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="769">
@@ -11165,7 +11165,7 @@
         <v>根納迪·戈洛夫金是一隻魷魚。</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11179,7 +11179,7 @@
         <v>諾瓦克·喬科維奇是一位運動員。</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11193,7 +11193,7 @@
         <v>格蕾絲·瓊斯在《致命鑑賞》中演出。</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="772">
@@ -11207,7 +11207,7 @@
         <v>丹尼斯·霍普是一位澳大利亞人。</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11221,7 +11221,7 @@
         <v>愛與友誼是一個廣告。</v>
       </c>
       <c r="D773" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="774">
@@ -11235,7 +11235,7 @@
         <v>西班牙是一個國家。</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="775">
@@ -11249,7 +11249,7 @@
         <v>托尼·戈德溫是一位德國製片人。</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11263,7 +11263,7 @@
         <v>羅馬·雷恩斯是一名職業棒球運動員。</v>
       </c>
       <c r="D776" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="777">
@@ -11277,7 +11277,7 @@
         <v>弗拉基米爾·普京從1997年到2008年擔任總統。</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11291,7 +11291,7 @@
         <v>西雅圖是華盛頓州最大的城市。</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11305,7 +11305,7 @@
         <v>安迪·考夫曼是一個野蠻人。</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="780">
@@ -11319,7 +11319,7 @@
         <v>丹尼·卡里沒有中間名。</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11333,7 +11333,7 @@
         <v>老虎伍茲贏得了棕櫚泉邀請賽。</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="782">
@@ -11347,7 +11347,7 @@
         <v>BRIT學校成立於1922年。</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="783">
@@ -11361,7 +11361,7 @@
         <v>約翰·韋恩·蓋西二世涉及犯罪。</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="784">
@@ -11375,7 +11375,7 @@
         <v>保護隊的指揮官是海因里希·希姆萊。</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="785">
@@ -11389,7 +11389,7 @@
         <v>Fergie 有一隻叫做「Outspoken」的狗。</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="786">
@@ -11403,7 +11403,7 @@
         <v>喬伊·格雷塞法曾與一家位於加州聖伯納迪諾的網站合作。</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="787">
@@ -11417,7 +11417,7 @@
         <v>《剩餘者》主演一位演員。</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="788">
@@ -11431,7 +11431,7 @@
         <v>卡梅羅·安東尼為一支足球隊效力。</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11445,7 +11445,7 @@
         <v>湯姆·費爾頓是雙子座。</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="790">
@@ -11459,7 +11459,7 @@
         <v>《歡樂合唱團》的最後一季於2013年4月19日被訂購。</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="791">
@@ -11473,7 +11473,7 @@
         <v>《歡樂合唱團》是一部電影。</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="792">
@@ -11487,7 +11487,7 @@
         <v>所有關於人民對子女監護權的法律都規定父母必須結婚。</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">
@@ -11501,7 +11501,7 @@
         <v>審訊中有證人作證。</v>
       </c>
       <c r="D793" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="794">
@@ -11515,7 +11515,7 @@
         <v>德克斯特對「我有一個夢想」冰淇淋的想法感到好笑。</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11529,7 +11529,7 @@
         <v>Fish 承認他可能是錯的。</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="796">
@@ -11543,7 +11543,7 @@
         <v>我不是想挑起爭議，但穆索里尼是圖季曼的主要靈感來源，因為他年輕時是一位政治家。</v>
       </c>
       <c r="D796" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="797">
@@ -11557,7 +11557,7 @@
         <v>法威爾風格的基督徒相信基督是猶太人。</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11571,7 +11571,7 @@
         <v>他們說他的資訊不值得考慮。</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="799">
@@ -11585,7 +11585,7 @@
         <v>Richey 和醫生在審訊期間否認對 Wynette 進行任何不當行為。</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11599,7 +11599,7 @@
         <v>讀者一直讀到書的結尾。</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11613,7 +11613,7 @@
         <v>幾名被定罪的罪犯將被允許與無人看守的總統和特殊利益團體密切互動。</v>
       </c>
       <c r="D801" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="802">
@@ -11627,7 +11627,7 @@
         <v>《紐約客》停止了《來自歐洲的信件》專欄。</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11641,7 +11641,7 @@
         <v>我嘅名字可能係 Pierre LeCluck。</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11655,7 +11655,7 @@
         <v>彈珠台可以用來賭博。</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11669,7 +11669,7 @@
         <v>涉及炸彈的罪行將會像其他罪行一樣被起訴。</v>
       </c>
       <c r="D805" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="806">
@@ -11683,7 +11683,7 @@
         <v>新罕布什爾州和愛荷華州經常改變一個人的想法。</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="807">
@@ -11697,7 +11697,7 @@
         <v>而家有一位天才可以幫助我們解決這個問題。</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11711,7 +11711,7 @@
         <v>毫無疑問，其他星球上有生命。</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="809">
@@ -11725,7 +11725,7 @@
         <v>多蘿西·希利知道莫里斯。</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11739,7 +11739,7 @@
         <v>這種立場是錯誤的。</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">
@@ -11753,7 +11753,7 @@
         <v>遊說者和大型捐款者更容易接觸參議員。</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="812">
@@ -11767,7 +11767,7 @@
         <v>其實在1992年有更多國家可以參加，</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="813">
@@ -11781,7 +11781,7 @@
         <v>有人可能把這星期《這一周》的錄音帶給了肯尼斯·斯塔爾。</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11795,7 +11795,7 @@
         <v>Reebok 故意給這款鞋取了一個挑釁的名字。</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="815">
@@ -11809,7 +11809,7 @@
         <v>被收養的孩子在遊樂場欺負每個人。</v>
       </c>
       <c r="D815" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="816">
@@ -11823,7 +11823,7 @@
         <v>今後幾年內，將避免電網、銀行、空中交通電腦、醫療設備等的災難性關閉。</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="817">
@@ -11837,7 +11837,7 @@
         <v>Lang 認為主要得到確認的假設是錯誤的。</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="818">
@@ -11851,7 +11851,7 @@
         <v>今日，一名間諜聲稱，根據死者的了解，在接受一位信件撰寫者的訪問時，美國當局可能已經批准了對迪恩的暗殺。</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11865,7 +11865,7 @@
         <v>共和黨人避免批評總統，因為他來自他們的政黨。</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="820">
@@ -11879,7 +11879,7 @@
         <v>你可以看到他臉上寫滿了痛苦，他看起來很痛苦。</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="821">
@@ -11893,7 +11893,7 @@
         <v>她對他們有一個秘密。</v>
       </c>
       <c r="D821" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="822">
@@ -11907,7 +11907,7 @@
         <v>很難判斷他們是否在正確的地方。</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="823">
@@ -11921,7 +11921,7 @@
         <v>放鬆管制的朋友們在過去的周年紀念中獲得了許多禮物。</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="824">
@@ -11935,7 +11935,7 @@
         <v>安曼是一個代價高昂的失敗。</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="825">
@@ -11949,7 +11949,7 @@
         <v>雇主應該將雞蛋出售給股東。</v>
       </c>
       <c r="D825" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="826">
@@ -11963,7 +11963,7 @@
         <v>大學學生對剝削工廠毫不在意。</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11977,7 +11977,7 @@
         <v>國會可能會超支。</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -11991,7 +11991,7 @@
         <v>Jess Gupta 可能是同性戀。</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12005,7 +12005,7 @@
         <v>亨利喜歡透過送她喜歡的東西來讓女孩高興得尖叫。</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="830">
@@ -12019,7 +12019,7 @@
         <v>摩門教徒實行一夫多妻制。</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12033,7 +12033,7 @@
         <v>投資者應該因為負面消息而撤回他們在微軟的資金。</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12047,7 +12047,7 @@
         <v>他們認為他應該花更多時間上網。</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12061,7 +12061,7 @@
         <v>發生嚴重後果的車禍可能是喬未能當選國會的原因。</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="834">
@@ -12075,7 +12075,7 @@
         <v>這個人並沒有考慮他們的決定。</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="835">
@@ -12089,7 +12089,7 @@
         <v>作者已經看過《威尼斯商人》。</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="836">
@@ -12103,7 +12103,7 @@
         <v>該產品應該在六、七、八月的夏季月份上架。</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12117,7 +12117,7 @@
         <v>社會可能有一天會崩潰。</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12131,7 +12131,7 @@
         <v>作者很可能在去世之前就會得上致命的疾病。</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="839">
@@ -12145,7 +12145,7 @@
         <v>我們可以接觸到受版權保護的材料。</v>
       </c>
       <c r="D839" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="840">
@@ -12159,7 +12159,7 @@
         <v>佢哋可能全部都係奴隸。</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12173,7 +12173,7 @@
         <v>美國和俄羅斯正在一起打仗。</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="842">
@@ -12187,7 +12187,7 @@
         <v>加入北約提供的額外保護有限。</v>
       </c>
       <c r="D842" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="843">
@@ -12201,7 +12201,7 @@
         <v>股權選擇權對消費者來說很少是合法的。</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="844">
@@ -12215,7 +12215,7 @@
         <v>該計劃將擴展至包括警察。</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="845">
@@ -12229,7 +12229,7 @@
         <v>他不會對有不同宗教觀念的人過於苛責。</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="846">
@@ -12243,7 +12243,7 @@
         <v>他們有選擇可以擺脫困境。</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12257,7 +12257,7 @@
         <v>她已經改變了。</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12271,7 +12271,7 @@
         <v>那些大額貸款會帶來改變。</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="849">
@@ -12285,7 +12285,7 @@
         <v>蘋果公司允許了一些公司，例如IBM和HP，生產運行他們操作系統的硬件。</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="850">
@@ -12299,7 +12299,7 @@
         <v>可以要求人們離開而不會有家庭問題。</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="851">
@@ -12313,7 +12313,7 @@
         <v>智慧有很多解釋和可能性，包括奇怪的。</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12327,7 +12327,7 @@
         <v>伊拉克突擊隊可能很難逃避新聞媒體的報導。</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="853">
@@ -12341,7 +12341,7 @@
         <v>一間鞋業公司的高層員工並未受到調查。</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="854">
@@ -12355,7 +12355,7 @@
         <v>Tripp 實際上騎過一條龍，但媒體忽視了這一點，反而專注於她在法庭上的證詞。</v>
       </c>
       <c r="D854" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="855">
@@ -12369,7 +12369,7 @@
         <v>沒有人確定伯格曼何時決定威根德不重要。</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="856">
@@ -12383,7 +12383,7 @@
         <v>這本書以論點結束。</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="857">
@@ -12397,7 +12397,7 @@
         <v>非牟利的人類服務提供者必須採用外國的做法和思維方式才能運作。</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="858">
@@ -12411,7 +12411,7 @@
         <v>保留的常客里程可以兌換現金價值。</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="859">
@@ -12425,7 +12425,7 @@
         <v>他幾乎肯定會被交易。</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="860">
@@ -12439,7 +12439,7 @@
         <v>某些類型的服務創新提案應該由美國郵政署考慮。</v>
       </c>
       <c r="D860" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="861">
@@ -12453,7 +12453,7 @@
         <v>微軟的行為受到質疑，正被調查中。</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="862">
@@ -12467,7 +12467,7 @@
         <v>比爾·布拉德利和艾爾·戈爾是除了亞利桑那州的民主黨之外，唯一受到網絡投票欺詐影響的人。</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12481,7 +12481,7 @@
         <v>股票期權是一個好主意。</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="864">
@@ -12509,7 +12509,7 @@
         <v>A 看起來像一間有鵝卵石庭院的鄉村酒吧。</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="866">
@@ -12523,7 +12523,7 @@
         <v>美國國家科學院報告了對於PM的研究優先事項。</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12537,7 +12537,7 @@
         <v>導遊偷偷進入葡萄牙政府的官方住所並不罕見。</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="868">
@@ -12551,7 +12551,7 @@
         <v>希臘可以吸納北部和東部意大利的島嶼，並抓住了這個機會。</v>
       </c>
       <c r="D868" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="869">
@@ -12565,7 +12565,7 @@
         <v>對於2000年轉換工作的嚴重時間限制，絕對不應該對敏感數據的保密性產生任何影響。</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="870">
@@ -12579,7 +12579,7 @@
         <v>他只在私下談論總統。</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="871">
@@ -12593,7 +12593,7 @@
         <v>無論我穿得怎樣，你都是真正的富蘭克林。</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="872">
@@ -12607,7 +12607,7 @@
         <v>樹木看起來很美。</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="873">
@@ -12621,7 +12621,7 @@
         <v>共和黨以前對保持金里奇在場感興趣。</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="874">
@@ -12635,7 +12635,7 @@
         <v>一定有人知道它在哪裡。</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12649,7 +12649,7 @@
         <v>我想佢哋寄咗封信俾我老公，想知道你老公係咪喺TI工作。</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12663,7 +12663,7 @@
         <v>這可以做多少份？</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12677,7 +12677,7 @@
         <v>他們對時尚品味一無所知。</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="878">
@@ -12691,7 +12691,7 @@
         <v>德魯認識唐吉訶德。</v>
       </c>
       <c r="D878" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="879">
@@ -12705,7 +12705,7 @@
         <v>NASA 的支持者一直堅持認為這是一個資金問題。</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12719,7 +12719,7 @@
         <v>德魯接受了那匹馬的報價。</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="881">
@@ -12733,7 +12733,7 @@
         <v>你應該。</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="882">
@@ -12747,7 +12747,7 @@
         <v>佢哋好有可能係。</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="883">
@@ -12761,7 +12761,7 @@
         <v>多一點是值得的，因為可能不會被投票。</v>
       </c>
       <c r="D883" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="884">
@@ -12775,7 +12775,7 @@
         <v>據估計，這次審判將花費Scheck從100,000美元到300,000美元不等，這對她來說是輕鬆負擔得起的。</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="885">
@@ -12789,7 +12789,7 @@
         <v>San'doro 把 Jon 拎起來，好讓他可以站起來。</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="886">
@@ -12803,7 +12803,7 @@
         <v>人不禁想知道他作為馬戲團小丑的歷史是否影響了他的攝影。</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12817,7 +12817,7 @@
         <v>這個決定將決定這些估計是否會改變。</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12831,7 +12831,7 @@
         <v>統治精英主導國家經濟。</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12845,7 +12845,7 @@
         <v>她在去世的那天立了一份新遺囑，實在非常可疑。</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12859,7 +12859,7 @@
         <v>承包商應該參與。</v>
       </c>
       <c r="D890" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="891">
@@ -12873,7 +12873,7 @@
         <v>一個人可能對兩個提議沒有偏好。</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12887,7 +12887,7 @@
         <v>新的排放規則於1996年5月公布。</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="893">
@@ -12901,7 +12901,7 @@
         <v>它可能不會最終成為一個民主國家。</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12915,7 +12915,7 @@
         <v>數值很大，肯定有某種錯誤。</v>
       </c>
       <c r="D894" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="895">
@@ -12929,7 +12929,7 @@
         <v>你一定是在戰爭中死了。</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12943,7 +12943,7 @@
         <v>作者對這個想法沒有實現感到高興。</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12957,7 +12957,7 @@
         <v>必須安裝先進的接收系統，以協助更多客戶。</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="898">
@@ -12971,7 +12971,7 @@
         <v>聯邦財政政策可能以多種方式影響國家儲蓄。</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -12985,7 +12985,7 @@
         <v>香蕉奶油派是最棒的，可以帶回家。</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -12999,7 +12999,7 @@
         <v>阿爾伯特的腳步聲可以聽到在樓上走動。</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="901">
@@ -13013,7 +13013,7 @@
         <v>蠟燭的光芒令這個男人看起來更加健壯。</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -13027,7 +13027,7 @@
         <v>該協議符合北美自由貿易協定的規定。</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13041,7 +13041,7 @@
         <v>進行電子郵件營銷活動的最佳方法就是隨意而為。列出一份客戶名單。煩擾人們是一個獲得追隨者的好方法。電子郵件營銷起源於八十年代。</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="904">
@@ -13055,7 +13055,7 @@
         <v>沒有來自紐約的成員。</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13069,7 +13069,7 @@
         <v>小狗是為了慶祝牠一歲生日。</v>
       </c>
       <c r="D905" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="906">
@@ -13083,7 +13083,7 @@
         <v>YouTube用戶Streetcap1發佈了一系列由中國月球探測器嫦娥四號拍攝的照片。</v>
       </c>
       <c r="D906" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="907">
@@ -13097,7 +13097,7 @@
         <v>分心的狀態可以透過視覺感官感知。</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13111,7 +13111,7 @@
         <v>萊斯安東尼學校不允許9歲男孩入學。</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">

--- a/Annotations/annotations_CN.xlsx
+++ b/Annotations/annotations_CN.xlsx
@@ -13125,7 +13125,7 @@
         <v>州長提議加倍進行國家建設。</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="910">
@@ -13139,7 +13139,7 @@
         <v>至少有少於十個人死亡。</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="911">
@@ -13153,7 +13153,7 @@
         <v>秋天的顏色並不依賴於降雨。</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="912">
@@ -13167,7 +13167,7 @@
         <v>尤素夫·卡拉不是菲律賓總統。</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13181,7 +13181,7 @@
         <v>共享區域考慮到城市設計。</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="914">
@@ -13195,7 +13195,7 @@
         <v>由麥迪遜出發，駕駛過去少於5小時。</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="915">
@@ -13209,7 +13209,7 @@
         <v>《地獄之刃》嘅排名高於《時間的盡頭》。</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13223,7 +13223,7 @@
         <v>醫生當時正出去散步，這一切就發生了。</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="917">
@@ -13237,7 +13237,7 @@
         <v>查克·賴特是安靜暴動的眾多背景歌手之一。</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="918">
@@ -13251,7 +13251,7 @@
         <v>中央大廳的籃球比賽最多只能容納10,014人。</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13265,7 +13265,7 @@
         <v>幾位憲法律師將會被審查。</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="920">
@@ -13279,7 +13279,7 @@
         <v>弱紙板比結實的好。</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="921">
@@ -13293,7 +13293,7 @@
         <v>有些醫療數值很大。</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13307,7 +13307,7 @@
         <v>艾力克認為尼爾穿工作服比穿正裝更好看。</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13321,7 +13321,7 @@
         <v>在總統任內，美國的工作正在流失。</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13335,7 +13335,7 @@
         <v>經濟增長是自由之地和勇敢之家總司令最重要的焦點。</v>
       </c>
       <c r="D924" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="925">
@@ -13349,7 +13349,7 @@
         <v>「提供宣誓書的地方」是非常具體的用語。</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13363,7 +13363,7 @@
         <v>韋瑟先生是一個虛構角色。</v>
       </c>
       <c r="D926" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="927">
@@ -13377,7 +13377,7 @@
         <v>男人們在經過一座建築時，從裡面遭到槍擊。</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="928">
@@ -13391,7 +13391,7 @@
         <v>那個男人並沒有在現場死亡。</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13405,7 +13405,7 @@
         <v>慢速呼吸模式是吸氣兩次，然後夢想著一次假期。</v>
       </c>
       <c r="D929" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="930">
@@ -13419,7 +13419,7 @@
         <v>總統相信與歐洲建立強大的關係。</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="931">
@@ -13433,7 +13433,7 @@
         <v>《全為愛》是由少於四個人創作的。</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13447,7 +13447,7 @@
         <v>由麥迪遜駕車過去少於6小時。</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13461,7 +13461,7 @@
         <v>橋接語法並不比島嶼語法小。</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="934">
@@ -13475,7 +13475,7 @@
         <v>這個節目不再叫做「Jack Horkheimer: Star Hustler」</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="935">
@@ -13489,7 +13489,7 @@
         <v>泡泡糖更適合吹泡泡。</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="936">
@@ -13503,7 +13503,7 @@
         <v>這位發言人參加過許多皇家批准儀式。</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13517,7 +13517,7 @@
         <v>加拿大政府已秘密進行談判一年。</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="938">
@@ -13531,7 +13531,7 @@
         <v>戈爾被稱為州長。</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13545,7 +13545,7 @@
         <v>Streetcap1 喺佢發佈中國月球探測器嫦娥三號嘅相片時，正喺月球上。</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="940">
@@ -13559,7 +13559,7 @@
         <v>嫦娥三號沒有將片段上載到YouTube。</v>
       </c>
       <c r="D940" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="941">
@@ -13573,7 +13573,7 @@
         <v>潮流正回歸。</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13587,7 +13587,7 @@
         <v>他們在農民的心中有行人道。</v>
       </c>
       <c r="D942" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="943">
@@ -13615,7 +13615,7 @@
         <v>《Holding Back the River》在排行榜上的成績比樂隊的首張專輯更高。</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="945">
@@ -13629,7 +13629,7 @@
         <v>戈登在本賽季的另一場比賽中多次得分。</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
@@ -13643,7 +13643,7 @@
         <v>Beat TV 一次播放超過兩小時。</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13657,7 +13657,7 @@
         <v>大十二聯盟有超過十間學校。</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13671,7 +13671,7 @@
         <v>格拉斯哥的凱爾文格羅夫博物館曾經在印度。</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="949">
@@ -13685,7 +13685,7 @@
         <v>Annet Artani 不是所有的歌曲都由她自己創作的。</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="950">
@@ -13699,7 +13699,7 @@
         <v>艾美和安娜在咖啡館偶然相遇後再次見面。</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="951">
@@ -13713,7 +13713,7 @@
         <v>鮑勃·亞當斯機場距離揚帕谷地區機場二十五英里。</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">
@@ -13727,7 +13727,7 @@
         <v>並非每個人都值得獲得醫療保險。</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953">
@@ -13741,7 +13741,7 @@
         <v>尼爾·戈登不是一個時尚的穿著者。</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="954">
@@ -13755,7 +13755,7 @@
         <v>聲明包含少於約28個字。</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="955">
@@ -13769,7 +13769,7 @@
         <v>每個人都在下一個人之前的五分鐘內講了幾分鐘話。</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="956">
@@ -13783,7 +13783,7 @@
         <v>南希·哈特·道格拉斯並不是石牆傑克遜將軍的偵察員。</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="957">
@@ -13797,7 +13797,7 @@
         <v>泰國和柬埔寨無法就一座寺廟的擁有權達成協議。</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13811,7 +13811,7 @@
         <v>在帕梅拉被謀殺三個多星期後，洛伊絲·里斯被警方拘留。</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="959">
@@ -13839,7 +13839,7 @@
         <v>詹森·艾克斯並不因在《小鎮英雄》中飾演傑森·提格而聞名。</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="961">
@@ -13853,7 +13853,7 @@
         <v>《十二個更便宜》是由一隻貓導演的。</v>
       </c>
       <c r="D961" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="962">
@@ -13867,7 +13867,7 @@
         <v>科恩兄弟執導了一部驚悚片。</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13881,7 +13881,7 @@
         <v>穆罕默德是一位先知。</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13895,7 +13895,7 @@
         <v>維納斯·威廉姆斯參加網球單打比賽。</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13909,7 +13909,7 @@
         <v>布蘭妮·墨菲參演了一部電影。</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13923,7 +13923,7 @@
         <v>百慕達於1609年被殖民。</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13937,7 +13937,7 @@
         <v>哈利·史泰爾斯和他的樂隊成員發佈了民謠專輯《午夜回憶》。</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="968">
@@ -13951,7 +13951,7 @@
         <v>《神奇的生物及其棲息地》是一本自然書籍。</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13965,7 +13965,7 @@
         <v>米卡·費德勒是一位曾經職業打網球的運動員，現在已經不再參賽。</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -13979,7 +13979,7 @@
         <v>大秀的出生名字是保羅·唐納德·懷特二世，不過他在職業摔角中使用大秀這個名字。</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -13993,7 +13993,7 @@
         <v>萊斯莉·阿根斯在蒂姆·米勒執導的電影中出演。</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14007,7 +14007,7 @@
         <v>維納斯·威廉姆斯打網球單打。</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14021,7 +14021,7 @@
         <v>德魯·巴里摩爾參演了一部電影。</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14035,7 +14035,7 @@
         <v>《玩具總動員》並不是基於之前發表的材料，因此可以被提名為最佳原創劇本。</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="975">
@@ -14049,7 +14049,7 @@
         <v>馬拉拉·優素福扎伊是女性教育權利的倡導者。</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="976">
@@ -14063,7 +14063,7 @@
         <v>π是一個數字。</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14077,7 +14077,7 @@
         <v>阿塞拜疆有很高比例的人口是識字的。</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14091,7 +14091,7 @@
         <v>意大利的正式名稱較長。</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="979">
@@ -14105,7 +14105,7 @@
         <v>馬特·格羅寧因《辛普森一家》獲得了黃金時段艾美獎。</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14119,7 +14119,7 @@
         <v>穆罕默德對宗教來說是重要的。</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14133,7 +14133,7 @@
         <v>約翰·麥肯羅是一位網球運動員。</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14147,7 +14147,7 @@
         <v>黑鏡是一匹賽馬。</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14161,7 +14161,7 @@
         <v>《燃燒的青春》是一個類型。</v>
       </c>
       <c r="D983" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="984">
@@ -14175,7 +14175,7 @@
         <v>約翰·麥凱恩在1989年被指控貪污，作為基廷五人組的一部分。</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985">
@@ -14189,7 +14189,7 @@
         <v>《瓦雷里安與千星城》有一位演員。</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="986">
@@ -14203,7 +14203,7 @@
         <v>維納斯·威廉斯在網球中參加單打比賽。</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14217,7 +14217,7 @@
         <v>瓦盧瓦的瑪格麗特有姐妹。</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14231,7 +14231,7 @@
         <v>馬特·格羅寧因《辛普森一家》贏得了十個意大利牛肉三明治。</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="989">
@@ -14245,7 +14245,7 @@
         <v>納什維爾作曲家協會國際提供音樂產業教育。</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14259,7 +14259,7 @@
         <v>《蝙蝠俠：開始》比北美獨立早。</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14273,7 +14273,7 @@
         <v>《玩具總動員》並不是基於之前發表的材料，因此可以被提名為最佳原創劇本。</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14287,7 +14287,7 @@
         <v>比利·喬爾在表演藝術行業。</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="993">
@@ -14301,7 +14301,7 @@
         <v>《燃燒的青春》已經以平裝本形式發行。</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="994">
@@ -14315,7 +14315,7 @@
         <v>布蘭妮·墨菲演出過。</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14329,7 +14329,7 @@
         <v>Foo Fighters 創作音樂。</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14343,7 +14343,7 @@
         <v>波音777是全球航程最遠的客機。</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="997">
@@ -14357,7 +14357,7 @@
         <v>穆罕默德對宗教來說是重要的。</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14371,7 +14371,7 @@
         <v>《變形金剛：復仇之戰》是一部電影。</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14385,7 +14385,7 @@
         <v>大秀的舞台名字是保羅·唐納德·懷特二世。</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14399,7 +14399,7 @@
         <v>穆罕默德對宗教來說是重要的。</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14413,7 +14413,7 @@
         <v>華金·菲尼克斯曾執導過電影。</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
   </sheetData>
